--- a/Excel_File/KetQuaThiCuaToanBoThiSinh.xlsx
+++ b/Excel_File/KetQuaThiCuaToanBoThiSinh.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>CCCD</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -124,7 +130,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -267,6 +273,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>

--- a/Excel_File/KetQuaThiCuaToanBoThiSinh.xlsx
+++ b/Excel_File/KetQuaThiCuaToanBoThiSinh.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>CCCD</t>
   </si>
@@ -84,6 +84,45 @@
   </si>
   <si>
     <t>8</t>
+  </si>
+  <si>
+    <t>05/11/2024 12:00:00 SA</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>08/11/2024 12:00:00 SA</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>09/11/2024 12:00:00 SA</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27/11/2024 12:00:00 SA</t>
   </si>
 </sst>
 </file>
@@ -130,7 +169,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -313,6 +352,226 @@
         <v>9</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
